--- a/src/test/resources/Test 2.xlsx
+++ b/src/test/resources/Test 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Documents\School\C01\Team17\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876671E7-57FB-4EEA-AFD7-8C2BB346C0EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6C12DD-23BD-4EFE-B562-7AF0B2B2F964}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" xr2:uid="{DE75E0F5-C35D-46DA-9B7C-F2DEBD0E6A1E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AB</t>
   </si>
@@ -68,10 +68,19 @@
     <t>BB</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
     <t>BC</t>
   </si>
   <si>
-    <t>BS</t>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC212C-6C07-438A-AA17-E1D25A9C4160}">
-  <dimension ref="A1:CQ5"/>
+  <dimension ref="A1:CQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -607,10 +616,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.3">
@@ -620,11 +632,14 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.3">
@@ -634,11 +649,50 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.8</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test 2.xlsx
+++ b/src/test/resources/Test 2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Documents\School\C01\Team17\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Documents\SCHOOL\C01\Team17\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6C12DD-23BD-4EFE-B562-7AF0B2B2F964}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154AD63-22ED-47AB-8463-2DFEA09FA578}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" xr2:uid="{DE75E0F5-C35D-46DA-9B7C-F2DEBD0E6A1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{DE75E0F5-C35D-46DA-9B7C-F2DEBD0E6A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC212C-6C07-438A-AA17-E1D25A9C4160}">
-  <dimension ref="A1:CQ9"/>
+  <dimension ref="A1:CQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:95" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:95" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="CP1" s="3"/>
       <c r="CQ1" s="3"/>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -659,39 +659,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
     </row>
@@ -700,5 +748,6 @@
     <mergeCell ref="A1:CQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>